--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>TestName</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>General-Dashboard-Clickable_links_[WEB]</t>
+  </si>
+  <si>
+    <t>Product_Summary_Sorting_on_the_Product_Summary_[WEB]</t>
+  </si>
+  <si>
+    <t>C70766</t>
   </si>
 </sst>
 </file>
@@ -1026,13 +1032,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="91.1388888888889" customWidth="1"/>
   </cols>
@@ -1177,8 +1183,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F5" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F7" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>TestName</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>C70766</t>
+  </si>
+  <si>
+    <t>Product_Summary-Edit_Product_view-edit_name_of_account_[WEB]_1</t>
+  </si>
+  <si>
+    <t>C70767</t>
+  </si>
+  <si>
+    <t>Product_Summary-Edit_Product_view-edit_name_of_account-Invalid_[WEB]_1</t>
+  </si>
+  <si>
+    <t>C70768</t>
   </si>
 </sst>
 </file>
@@ -1032,13 +1044,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="91.1388888888889" customWidth="1"/>
   </cols>
@@ -1203,8 +1215,48 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F7" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F8" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
   <si>
     <t>TestName</t>
   </si>
@@ -99,6 +99,30 @@
   </si>
   <si>
     <t>C70768</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]</t>
+  </si>
+  <si>
+    <t>C70769</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Financial_Details_[WEB]</t>
+  </si>
+  <si>
+    <t>C70770</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Details-Account_Details_[WEB]</t>
+  </si>
+  <si>
+    <t>C70771</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Header-Display_[WEB]</t>
+  </si>
+  <si>
+    <t>C70772</t>
   </si>
 </sst>
 </file>
@@ -111,7 +135,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +148,17 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -588,143 +623,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,10 +1081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1255,8 +1292,88 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F8" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F13" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
   <si>
     <t>TestName</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>C70772</t>
+  </si>
+  <si>
+    <t>Product_Summary-Hide/Show_account_on_Product_List_[WEB]_1</t>
+  </si>
+  <si>
+    <t>C70773</t>
   </si>
 </sst>
 </file>
@@ -1081,10 +1087,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1372,8 +1378,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F13" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F14" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>TestName</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>C70773</t>
+  </si>
+  <si>
+    <t>General-Dashboard-Page_overview_[WEB]</t>
+  </si>
+  <si>
+    <t>C70774</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1398,8 +1404,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F14" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F15" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="37">
   <si>
     <t>TestName</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>C70774</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Account_Product_Details_Account_Details_[WEB]</t>
+  </si>
+  <si>
+    <t>C70775</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1424,8 +1430,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F15" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F16" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
   <si>
     <t>TestName</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>C70772</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]</t>
+  </si>
+  <si>
+    <t>C107173</t>
   </si>
 </sst>
 </file>
@@ -1081,10 +1087,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1372,8 +1378,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F13" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F14" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
   <si>
     <t>TestName</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>C70775</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]</t>
+  </si>
+  <si>
+    <t>C70776</t>
   </si>
 </sst>
 </file>
@@ -1099,10 +1105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1450,8 +1456,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F16" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F17" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
   <si>
     <t>TestName</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>C70776</t>
+  </si>
+  <si>
+    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_2</t>
+  </si>
+  <si>
+    <t>C70777</t>
   </si>
 </sst>
 </file>
@@ -159,7 +165,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +181,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.8"/>
-      <color rgb="FFBCBEC4"/>
-      <name val="Courier New"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -647,133 +647,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -785,7 +785,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1105,10 +1105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1476,8 +1476,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F17" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F18" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>TestName</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>C70777</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]</t>
+  </si>
+  <si>
+    <t>C70778</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1496,8 +1502,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F18" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F19" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>TestName</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>C70777</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Transactions-Filter_By_Type_[WEB]</t>
+  </si>
+  <si>
+    <t>C70778</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1496,8 +1502,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F18" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F19" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t>TestName</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>C70778</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Transactions-Filter_By_Type_[WEB]</t>
+  </si>
+  <si>
+    <t>C70779</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]</t>
+  </si>
+  <si>
+    <t>C70780</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1522,8 +1534,48 @@
         <v>11</v>
       </c>
     </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F19" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F20" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="48">
   <si>
     <t>TestName</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>C70780</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Account-Transactions-Filter_By_Type_[WEB]</t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1574,8 +1577,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F20" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F22" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
   <si>
     <t>TestName</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Current_Domestic_Account-Transactions-Filter_By_Type_[WEB]</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]</t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1597,6 +1600,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F22" etc:filterBottomFollowUsedRange="0">
     <extLst/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
   <si>
     <t>TestName</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>Current_Domestic_Account-Transactions-Filter_By_Type_[WEB]</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Multiple-Filter_Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>C70781</t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1597,8 +1603,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F22" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F23" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
   <si>
     <t>TestName</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Multiple-Filter_Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>C70781</t>
+  </si>
+  <si>
+    <t>C70782</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1620,8 +1629,48 @@
         <v>11</v>
       </c>
     </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F22" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F24" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
   <si>
     <t>TestName</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>C70782</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Multiple-Filter_Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>C70783</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Account-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]</t>
+  </si>
+  <si>
+    <t>C70784</t>
   </si>
 </sst>
 </file>
@@ -1138,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1669,8 +1681,48 @@
         <v>11</v>
       </c>
     </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F24" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F26" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="78">
   <si>
     <t>TestName</t>
   </si>
@@ -198,6 +198,72 @@
   </si>
   <si>
     <t>C70784</t>
+  </si>
+  <si>
+    <t>Term_Deposits_Lists_[WEB]</t>
+  </si>
+  <si>
+    <t>C70785</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts_Product_Details_Financial_Details_Is_Not_Visible_[WEB]</t>
+  </si>
+  <si>
+    <t>C70786</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions_Filter_By_Date-Date_Picker_[WEB]</t>
+  </si>
+  <si>
+    <t>C70787</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Amount_[WEB]</t>
+  </si>
+  <si>
+    <t>C70788</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Amount_Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>C70789</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions_List_No_Transactions_[WEB]</t>
+  </si>
+  <si>
+    <t>C70790</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions_Filter_By_Date-Date_Picker_[WEB]</t>
+  </si>
+  <si>
+    <t>C70791</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Filter_By_Amount_[WEB]</t>
+  </si>
+  <si>
+    <t>C70792</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Filter_By_Amount_Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>C70793</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions_List_No_Transactions_[WEB]</t>
+  </si>
+  <si>
+    <t>C70794</t>
+  </si>
+  <si>
+    <t>Credit_Cards-Header_Display_[WEB]</t>
+  </si>
+  <si>
+    <t>C70795</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1216,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1721,8 +1787,228 @@
         <v>11</v>
       </c>
     </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F26" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F28" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="66">
   <si>
     <t>TestName</t>
   </si>
@@ -198,6 +198,36 @@
   </si>
   <si>
     <t>C70784</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_[WEB]_1</t>
+  </si>
+  <si>
+    <t>C70785</t>
+  </si>
+  <si>
+    <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1</t>
+  </si>
+  <si>
+    <t>C70786</t>
+  </si>
+  <si>
+    <t>Manage_Products-Nickname_Product_Returning_To_Default_Name_[WEB]</t>
+  </si>
+  <si>
+    <t>C70787</t>
+  </si>
+  <si>
+    <t>Manage_Products-Nickname_Product_[WEB]_Invalid</t>
+  </si>
+  <si>
+    <t>C70788</t>
+  </si>
+  <si>
+    <t>Manage_Products-Nickname_Product_[WEB]</t>
+  </si>
+  <si>
+    <t>C70789</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1721,8 +1751,108 @@
         <v>11</v>
       </c>
     </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F26" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F28" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="60">
   <si>
     <t>TestName</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>C70784</t>
+  </si>
+  <si>
+    <t>Manage_Products-Favorite_account_[WEB]</t>
+  </si>
+  <si>
+    <t>C70785</t>
+  </si>
+  <si>
+    <t>Manage_Products-Favorite_account-Removal_of_the_favorite_account_[WEB]</t>
+  </si>
+  <si>
+    <t>C70786</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1721,8 +1733,48 @@
         <v>11</v>
       </c>
     </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F26" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F29" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
     <t>uat</t>
   </si>
   <si>
-    <t>Product_Summary-Current_Accounts_List_[WEB]_1</t>
+    <t>Product_Summary-Current_Accounts_List_[WEB]</t>
   </si>
   <si>
     <t>C70764</t>
@@ -1182,8 +1182,8 @@
   <sheetPr/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1852,7 +1852,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F28" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F33" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="82">
   <si>
     <t>TestName</t>
   </si>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>C70795</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]</t>
+  </si>
+  <si>
+    <t>C70796</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques-Filter_[WEB]</t>
+  </si>
+  <si>
+    <t>C70797</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2007,8 +2019,48 @@
         <v>11</v>
       </c>
     </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F28" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F40" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="70">
   <si>
     <t>TestName</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>C70789</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]</t>
+  </si>
+  <si>
+    <t>C70790</t>
+  </si>
+  <si>
+    <t>Products_Current_Domestic_Accounts-Cheques-Filter_[WEB]</t>
+  </si>
+  <si>
+    <t>C70791</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1192,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1851,6 +1863,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F33" etc:filterBottomFollowUsedRange="0">
     <extLst/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="68">
   <si>
     <t>TestName</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>C70789</t>
+  </si>
+  <si>
+    <t>Product_Summary-Credit_Card_List_[WEB]_1</t>
+  </si>
+  <si>
+    <t>C70790</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1186,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1851,8 +1857,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F28" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F33" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="78">
   <si>
     <t>TestName</t>
   </si>
@@ -240,6 +240,30 @@
   </si>
   <si>
     <t>C70791</t>
+  </si>
+  <si>
+    <t>Product_Summary-Credit_Card_List_[WEB]_1</t>
+  </si>
+  <si>
+    <t>C70792</t>
+  </si>
+  <si>
+    <t>Manage_Products-Favorite_account_[WEB]</t>
+  </si>
+  <si>
+    <t>C70793</t>
+  </si>
+  <si>
+    <t>Manage_Products-Favorite_account-Removal_of_the_favorite_account_[WEB]</t>
+  </si>
+  <si>
+    <t>C70794</t>
+  </si>
+  <si>
+    <t>Term_Deposits_Lists_[WEB]</t>
+  </si>
+  <si>
+    <t>C70795</t>
   </si>
 </sst>
 </file>
@@ -1192,10 +1216,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1903,8 +1927,88 @@
         <v>11</v>
       </c>
     </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F33" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F35" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
   <si>
     <t>TestName</t>
   </si>
@@ -230,16 +230,34 @@
     <t>C70789</t>
   </si>
   <si>
-    <t>Products_Current_Domestic_Accounts-Cheques_[WEB]</t>
+    <t>Products_Current_Accounts-Cheques_[WEB]</t>
   </si>
   <si>
     <t>C70790</t>
   </si>
   <si>
-    <t>Products_Current_Domestic_Accounts-Cheques-Filter_[WEB]</t>
+    <t>Products_Current_Accounts-Cheques-Filter_[WEB]</t>
   </si>
   <si>
     <t>C70791</t>
+  </si>
+  <si>
+    <t>Products_Current_Accounts-Cheques-Input_Fields-invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>C70792</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions_List_[WEB]</t>
+  </si>
+  <si>
+    <t>C70793</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions_List_[WEB]</t>
+  </si>
+  <si>
+    <t>C70794</t>
   </si>
 </sst>
 </file>
@@ -1192,10 +1210,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1903,8 +1921,68 @@
         <v>11</v>
       </c>
     </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F33" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F36" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="96">
   <si>
     <t>TestName</t>
   </si>
@@ -101,25 +101,13 @@
     <t>C70768</t>
   </si>
   <si>
-    <t>Current_Accounts-Transactions_List_select_Currency_[WEB]</t>
-  </si>
-  <si>
-    <t>C70769</t>
-  </si>
-  <si>
-    <t>Current_Accounts-Details-Financial_Details_[WEB]</t>
-  </si>
-  <si>
-    <t>C70770</t>
-  </si>
-  <si>
-    <t>Current_Accounts-Details-Account_Details_[WEB]</t>
+    <t>Current_Domestic_Accounts-Details-Account_Details_[WEB]</t>
   </si>
   <si>
     <t>C70771</t>
   </si>
   <si>
-    <t>Current_Accounts-Header-Display_[WEB]</t>
+    <t>Current_Domestic_Accounts-Header-Display_[WEB]</t>
   </si>
   <si>
     <t>C70772</t>
@@ -258,6 +246,78 @@
   </si>
   <si>
     <t>C70794</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Transactions_List_select_Currency_[WEB]</t>
+  </si>
+  <si>
+    <t>C70795</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Details-Financial_Details_[WEB]</t>
+  </si>
+  <si>
+    <t>C70796</t>
+  </si>
+  <si>
+    <t>Credit_Cards-Header_Display_[WEB]</t>
+  </si>
+  <si>
+    <t>C70797</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions_List_No_Transactions_[WEB]</t>
+  </si>
+  <si>
+    <t>C70798</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions_Filter_By_Date-Date_Picker_[WEB]</t>
+  </si>
+  <si>
+    <t>C70799</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Amount_[WEB]</t>
+  </si>
+  <si>
+    <t>C70800</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Amount_Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>C70801</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts_Product_Details_Financial_Details_Is_Not_Visible_[WEB]</t>
+  </si>
+  <si>
+    <t>C70802</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions_List_No_Transactions_[WEB]</t>
+  </si>
+  <si>
+    <t>C70803</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions_Filter_By_Date-Date_Picker_[WEB]</t>
+  </si>
+  <si>
+    <t>C70804</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Filter_By_Amount_[WEB]</t>
+  </si>
+  <si>
+    <t>C70805</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Filter_By_Amount_Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>C70806</t>
   </si>
 </sst>
 </file>
@@ -882,7 +942,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -890,7 +950,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,10 +1269,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1422,7 +1481,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1442,7 +1501,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1582,7 +1641,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1622,11 +1681,11 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1643,10 +1702,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -1663,7 +1722,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>46</v>
@@ -1683,30 +1742,30 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="B25" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -1723,7 +1782,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>51</v>
@@ -1742,7 +1801,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1978,6 +2037,206 @@
         <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="104">
   <si>
     <t>TestName</t>
   </si>
@@ -68,256 +68,280 @@
     <t>off</t>
   </si>
   <si>
-    <t>Homepage_Login</t>
+    <t>Product_Summary_Favourite_account_[WEB]</t>
+  </si>
+  <si>
+    <t>C70765</t>
   </si>
   <si>
     <t>General-Dashboard-Quick_Links_[WEB]</t>
   </si>
   <si>
-    <t>C70765</t>
-  </si>
-  <si>
-    <t>Product_Summary_Favourite_account_[WEB]</t>
+    <t>C70766</t>
   </si>
   <si>
     <t>General-Dashboard-Clickable_links_[WEB]</t>
   </si>
   <si>
+    <t>C70767</t>
+  </si>
+  <si>
     <t>Product_Summary_Sorting_on_the_Product_Summary_[WEB]</t>
   </si>
   <si>
-    <t>C70766</t>
+    <t>C70768</t>
   </si>
   <si>
     <t>Product_Summary-Edit_Product_view-edit_name_of_account_[WEB]_1</t>
   </si>
   <si>
-    <t>C70767</t>
+    <t>C70769</t>
   </si>
   <si>
     <t>Product_Summary-Edit_Product_view-edit_name_of_account-Invalid_[WEB]_1</t>
   </si>
   <si>
-    <t>C70768</t>
+    <t>C70770</t>
+  </si>
+  <si>
+    <t>Product_Summary-Credit_Card_List_[WEB]_1</t>
+  </si>
+  <si>
+    <t>C70771</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Details-Account_Details_[WEB]</t>
   </si>
   <si>
-    <t>C70771</t>
+    <t>C70772</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Header-Display_[WEB]</t>
   </si>
   <si>
-    <t>C70772</t>
+    <t>C70773</t>
   </si>
   <si>
     <t>Product_Summary-Hide/Show_account_on_Product_List_[WEB]_1</t>
   </si>
   <si>
-    <t>C70773</t>
+    <t>C70774</t>
   </si>
   <si>
     <t>General-Dashboard-Page_overview_[WEB]</t>
   </si>
   <si>
-    <t>C70774</t>
+    <t>C70775</t>
   </si>
   <si>
     <t>Foreign_Current_Account_Product_Details_Account_Details_[WEB]</t>
   </si>
   <si>
-    <t>C70775</t>
+    <t>C70776</t>
   </si>
   <si>
     <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]</t>
   </si>
   <si>
-    <t>C70776</t>
+    <t>C70777</t>
   </si>
   <si>
     <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_2</t>
   </si>
   <si>
-    <t>C70777</t>
+    <t>C70778</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]</t>
   </si>
   <si>
-    <t>C70778</t>
+    <t>C70779</t>
   </si>
   <si>
     <t>Foreign_Current_Accounts-Transactions-Filter_By_Type_[WEB]</t>
   </si>
   <si>
-    <t>C70779</t>
+    <t>C70780</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Account-Transactions-Filter_By_Type_[WEB]</t>
+  </si>
+  <si>
+    <t>C70781</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]</t>
+  </si>
+  <si>
+    <t>C70782</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Multiple-Filter_Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>C70783</t>
   </si>
   <si>
     <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]</t>
   </si>
   <si>
-    <t>C70780</t>
-  </si>
-  <si>
-    <t>Current_Domestic_Account-Transactions-Filter_By_Type_[WEB]</t>
-  </si>
-  <si>
-    <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]</t>
-  </si>
-  <si>
-    <t>Foreign_Current_Accounts-Multiple-Filter_Invalid_[WEB]</t>
-  </si>
-  <si>
-    <t>C70781</t>
-  </si>
-  <si>
-    <t>C70782</t>
+    <t>C70784</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Multiple-Filter_Invalid_[WEB]</t>
   </si>
   <si>
-    <t>C70783</t>
+    <t>C70785</t>
   </si>
   <si>
     <t>Foreign_Current_Account-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]</t>
   </si>
   <si>
-    <t>C70784</t>
+    <t>C70786</t>
+  </si>
+  <si>
+    <t>Manage_Products-Favorite_account_[WEB]</t>
+  </si>
+  <si>
+    <t>C70787</t>
+  </si>
+  <si>
+    <t>Manage_Products-Favorite_account-Removal_of_the_favorite_account_[WEB]</t>
+  </si>
+  <si>
+    <t>C70788</t>
   </si>
   <si>
     <t>Manage_Products-Hide/Show_account_on_Product_List_[WEB]_1</t>
   </si>
   <si>
-    <t>C70785</t>
+    <t>C70789</t>
   </si>
   <si>
     <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1</t>
   </si>
   <si>
-    <t>C70786</t>
+    <t>C70790</t>
   </si>
   <si>
     <t>Manage_Products-Nickname_Product_Returning_To_Default_Name_[WEB]</t>
   </si>
   <si>
-    <t>C70787</t>
+    <t>C70791</t>
   </si>
   <si>
     <t>Manage_Products-Nickname_Product_[WEB]_Invalid</t>
   </si>
   <si>
-    <t>C70788</t>
+    <t>C70792</t>
   </si>
   <si>
     <t>Manage_Products-Nickname_Product_[WEB]</t>
   </si>
   <si>
-    <t>C70789</t>
+    <t>C70793</t>
   </si>
   <si>
     <t>Products_Current_Accounts-Cheques_[WEB]</t>
   </si>
   <si>
-    <t>C70790</t>
+    <t>C70794</t>
   </si>
   <si>
     <t>Products_Current_Accounts-Cheques-Filter_[WEB]</t>
   </si>
   <si>
-    <t>C70791</t>
+    <t>C70795</t>
   </si>
   <si>
     <t>Products_Current_Accounts-Cheques-Input_Fields-invalid_[WEB]</t>
   </si>
   <si>
-    <t>C70792</t>
+    <t>C70796</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions_List_[WEB]</t>
   </si>
   <si>
-    <t>C70793</t>
+    <t>C70797</t>
   </si>
   <si>
     <t>Current_Foreign_Accounts-Transactions_List_[WEB]</t>
   </si>
   <si>
-    <t>C70794</t>
+    <t>C70798</t>
   </si>
   <si>
     <t>Foreign_Current_Accounts-Transactions_List_select_Currency_[WEB]</t>
   </si>
   <si>
-    <t>C70795</t>
+    <t>C70799</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Details-Financial_Details_[WEB]</t>
   </si>
   <si>
-    <t>C70796</t>
+    <t>C70800</t>
   </si>
   <si>
     <t>Credit_Cards-Header_Display_[WEB]</t>
   </si>
   <si>
-    <t>C70797</t>
+    <t>C70801</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions_List_No_Transactions_[WEB]</t>
   </si>
   <si>
-    <t>C70798</t>
+    <t>C70802</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions_Filter_By_Date-Date_Picker_[WEB]</t>
   </si>
   <si>
-    <t>C70799</t>
+    <t>C70803</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions-Filter_By_Amount_[WEB]</t>
   </si>
   <si>
-    <t>C70800</t>
+    <t>C70804</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions-Filter_By_Amount_Invalid_[WEB]</t>
   </si>
   <si>
-    <t>C70801</t>
+    <t>C70805</t>
   </si>
   <si>
     <t>Current_Foreign_Accounts_Product_Details_Financial_Details_Is_Not_Visible_[WEB]</t>
   </si>
   <si>
-    <t>C70802</t>
+    <t>C70806</t>
   </si>
   <si>
     <t>Current_Foreign_Accounts-Transactions_List_No_Transactions_[WEB]</t>
   </si>
   <si>
-    <t>C70803</t>
+    <t>C70807</t>
   </si>
   <si>
     <t>Current_Foreign_Accounts-Transactions_Filter_By_Date-Date_Picker_[WEB]</t>
   </si>
   <si>
-    <t>C70804</t>
+    <t>C70808</t>
   </si>
   <si>
     <t>Current_Foreign_Accounts-Transactions-Filter_By_Amount_[WEB]</t>
   </si>
   <si>
-    <t>C70805</t>
+    <t>C70809</t>
   </si>
   <si>
     <t>Current_Foreign_Accounts-Transactions-Filter_By_Amount_Invalid_[WEB]</t>
   </si>
   <si>
-    <t>C70806</t>
+    <t>C70810</t>
   </si>
 </sst>
 </file>
@@ -1002,6 +1026,18 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1271,8 +1307,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1325,7 +1361,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -1342,10 +1378,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -1362,10 +1398,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -1382,10 +1418,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -1402,10 +1438,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -1422,10 +1458,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -1442,10 +1478,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1462,10 +1498,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -1482,10 +1518,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -1502,10 +1538,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1522,10 +1558,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -1542,10 +1578,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -1562,10 +1598,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -1582,10 +1618,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -1602,10 +1638,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -1621,11 +1657,11 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>37</v>
+      <c r="A18" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1641,11 +1677,11 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
-        <v>39</v>
+      <c r="A19" t="s">
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1662,10 +1698,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -1682,10 +1718,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1702,10 +1738,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -1721,11 +1757,11 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>45</v>
+      <c r="A23" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -1742,10 +1778,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -1761,11 +1797,11 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
-        <v>48</v>
+      <c r="A25" t="s">
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -1782,10 +1818,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -1802,10 +1838,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -1822,10 +1858,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -1842,10 +1878,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -1862,10 +1898,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -1882,10 +1918,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -1902,10 +1938,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
@@ -1922,10 +1958,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -1942,10 +1978,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
@@ -1962,10 +1998,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
@@ -1982,10 +2018,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
@@ -2002,10 +2038,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -2022,10 +2058,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -2042,10 +2078,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
@@ -2062,10 +2098,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -2082,10 +2118,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -2102,10 +2138,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
@@ -2122,10 +2158,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
@@ -2142,10 +2178,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
@@ -2162,10 +2198,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
@@ -2182,10 +2218,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2202,10 +2238,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -2222,10 +2258,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2241,9 +2277,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F36" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F48" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B$1:B$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="106">
   <si>
     <t>TestName</t>
   </si>
@@ -110,238 +110,244 @@
     <t>C70771</t>
   </si>
   <si>
+    <t>Term_Deposits_Lists_[WEB]</t>
+  </si>
+  <si>
+    <t>C70772</t>
+  </si>
+  <si>
     <t>Current_Domestic_Accounts-Details-Account_Details_[WEB]</t>
   </si>
   <si>
-    <t>C70772</t>
+    <t>C70773</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Header-Display_[WEB]</t>
   </si>
   <si>
-    <t>C70773</t>
+    <t>C70774</t>
   </si>
   <si>
     <t>Product_Summary-Hide/Show_account_on_Product_List_[WEB]_1</t>
   </si>
   <si>
-    <t>C70774</t>
+    <t>C70775</t>
   </si>
   <si>
     <t>General-Dashboard-Page_overview_[WEB]</t>
   </si>
   <si>
-    <t>C70775</t>
+    <t>C70776</t>
   </si>
   <si>
     <t>Foreign_Current_Account_Product_Details_Account_Details_[WEB]</t>
   </si>
   <si>
-    <t>C70776</t>
+    <t>C70777</t>
   </si>
   <si>
     <t>Current_Accounts-Transactions_Details-Create_Confirmation_[WEB]</t>
   </si>
   <si>
-    <t>C70777</t>
+    <t>C70778</t>
   </si>
   <si>
     <t>Current_Accounts-Transactions_List_select_Currency_[WEB]_2</t>
   </si>
   <si>
-    <t>C70778</t>
+    <t>C70779</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions-Download_option_[WEB]</t>
   </si>
   <si>
-    <t>C70779</t>
+    <t>C70780</t>
   </si>
   <si>
     <t>Foreign_Current_Accounts-Transactions-Filter_By_Type_[WEB]</t>
   </si>
   <si>
-    <t>C70780</t>
+    <t>C70781</t>
   </si>
   <si>
     <t>Current_Domestic_Account-Transactions-Filter_By_Type_[WEB]</t>
   </si>
   <si>
-    <t>C70781</t>
+    <t>C70782</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]</t>
   </si>
   <si>
-    <t>C70782</t>
+    <t>C70783</t>
   </si>
   <si>
     <t>Foreign_Current_Accounts-Multiple-Filter_Invalid_[WEB]</t>
   </si>
   <si>
-    <t>C70783</t>
+    <t>C70784</t>
   </si>
   <si>
     <t>Current_Foreign_Accounts-Transactions-Download_option_[WEB]</t>
   </si>
   <si>
-    <t>C70784</t>
+    <t>C70785</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Multiple-Filter_Invalid_[WEB]</t>
   </si>
   <si>
-    <t>C70785</t>
+    <t>C70786</t>
   </si>
   <si>
     <t>Foreign_Current_Account-Transactions-Filter_By_Date-Predefined_Date_Range_[WEB]</t>
   </si>
   <si>
-    <t>C70786</t>
+    <t>C70787</t>
   </si>
   <si>
     <t>Manage_Products-Favorite_account_[WEB]</t>
   </si>
   <si>
-    <t>C70787</t>
+    <t>C70788</t>
   </si>
   <si>
     <t>Manage_Products-Favorite_account-Removal_of_the_favorite_account_[WEB]</t>
   </si>
   <si>
-    <t>C70788</t>
+    <t>C70789</t>
   </si>
   <si>
     <t>Manage_Products-Hide/Show_account_on_Product_List_[WEB]_1</t>
   </si>
   <si>
-    <t>C70789</t>
+    <t>C70790</t>
   </si>
   <si>
     <t>Manage_Products-Hide/Show_account_on_Product_List_Invalid[WEB]_1</t>
   </si>
   <si>
-    <t>C70790</t>
+    <t>C70791</t>
   </si>
   <si>
     <t>Manage_Products-Nickname_Product_Returning_To_Default_Name_[WEB]</t>
   </si>
   <si>
-    <t>C70791</t>
+    <t>C70792</t>
   </si>
   <si>
     <t>Manage_Products-Nickname_Product_[WEB]_Invalid</t>
   </si>
   <si>
-    <t>C70792</t>
+    <t>C70793</t>
   </si>
   <si>
     <t>Manage_Products-Nickname_Product_[WEB]</t>
   </si>
   <si>
-    <t>C70793</t>
+    <t>C70794</t>
   </si>
   <si>
     <t>Products_Current_Accounts-Cheques_[WEB]</t>
   </si>
   <si>
-    <t>C70794</t>
+    <t>C70795</t>
   </si>
   <si>
     <t>Products_Current_Accounts-Cheques-Filter_[WEB]</t>
   </si>
   <si>
-    <t>C70795</t>
+    <t>C70796</t>
   </si>
   <si>
     <t>Products_Current_Accounts-Cheques-Input_Fields-invalid_[WEB]</t>
   </si>
   <si>
-    <t>C70796</t>
+    <t>C70797</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions_List_[WEB]</t>
   </si>
   <si>
-    <t>C70797</t>
+    <t>C70798</t>
   </si>
   <si>
     <t>Current_Foreign_Accounts-Transactions_List_[WEB]</t>
   </si>
   <si>
-    <t>C70798</t>
+    <t>C70799</t>
   </si>
   <si>
     <t>Foreign_Current_Accounts-Transactions_List_select_Currency_[WEB]</t>
   </si>
   <si>
-    <t>C70799</t>
+    <t>C70800</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Details-Financial_Details_[WEB]</t>
   </si>
   <si>
-    <t>C70800</t>
+    <t>C70801</t>
   </si>
   <si>
     <t>Credit_Cards-Header_Display_[WEB]</t>
   </si>
   <si>
-    <t>C70801</t>
+    <t>C70802</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions_List_No_Transactions_[WEB]</t>
   </si>
   <si>
-    <t>C70802</t>
+    <t>C70803</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions_Filter_By_Date-Date_Picker_[WEB]</t>
   </si>
   <si>
-    <t>C70803</t>
+    <t>C70804</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions-Filter_By_Amount_[WEB]</t>
   </si>
   <si>
-    <t>C70804</t>
+    <t>C70805</t>
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions-Filter_By_Amount_Invalid_[WEB]</t>
   </si>
   <si>
-    <t>C70805</t>
+    <t>C70806</t>
   </si>
   <si>
     <t>Current_Foreign_Accounts_Product_Details_Financial_Details_Is_Not_Visible_[WEB]</t>
   </si>
   <si>
-    <t>C70806</t>
+    <t>C70807</t>
   </si>
   <si>
     <t>Current_Foreign_Accounts-Transactions_List_No_Transactions_[WEB]</t>
   </si>
   <si>
-    <t>C70807</t>
+    <t>C70808</t>
   </si>
   <si>
     <t>Current_Foreign_Accounts-Transactions_Filter_By_Date-Date_Picker_[WEB]</t>
   </si>
   <si>
-    <t>C70808</t>
+    <t>C70809</t>
   </si>
   <si>
     <t>Current_Foreign_Accounts-Transactions-Filter_By_Amount_[WEB]</t>
   </si>
   <si>
-    <t>C70809</t>
+    <t>C70810</t>
   </si>
   <si>
     <t>Current_Foreign_Accounts-Transactions-Filter_By_Amount_Invalid_[WEB]</t>
   </si>
   <si>
-    <t>C70810</t>
+    <t>C70811</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1032,17 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1305,10 +1321,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1657,7 +1673,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1677,7 +1693,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1757,7 +1773,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1777,7 +1793,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2276,18 +2292,39 @@
         <v>11</v>
       </c>
     </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F48" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F49" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B$1:B$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="134">
   <si>
     <t>TestName</t>
   </si>
@@ -348,6 +348,90 @@
   </si>
   <si>
     <t>C70811</t>
+  </si>
+  <si>
+    <t>Savings_Accounts_Details-Financial_Details_[WEB]</t>
+  </si>
+  <si>
+    <t>C70812</t>
+  </si>
+  <si>
+    <t>Savings_Accounts_Details-Account_Details_[WEB]</t>
+  </si>
+  <si>
+    <t>C70813</t>
+  </si>
+  <si>
+    <t>Credit_Cards-Transactions_Filter_By_Date-Date_Picker_[WEB]</t>
+  </si>
+  <si>
+    <t>C70814</t>
+  </si>
+  <si>
+    <t>Credit_Cards-Transactions_Filter_By_Date-Date_Picker-invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>C70815</t>
+  </si>
+  <si>
+    <t>Credit_Cards-Transactions_List_No_Transactions_[WEB]</t>
+  </si>
+  <si>
+    <t>C70816</t>
+  </si>
+  <si>
+    <t>Term_Deposits-Details_Account_Details_[WEB]</t>
+  </si>
+  <si>
+    <t>C70817</t>
+  </si>
+  <si>
+    <t>Product_Summary-Current_Foreign_Accounts_List_[WEB]</t>
+  </si>
+  <si>
+    <t>C70818</t>
+  </si>
+  <si>
+    <t>Product_Summary-Savings_Accounts_List_Domestic_[WEB]</t>
+  </si>
+  <si>
+    <t>C70819</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions_Filter-Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>C70820</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions_Filter-Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>C70821</t>
+  </si>
+  <si>
+    <t>Payments_Recipient-Save_Recipient_[WEB]</t>
+  </si>
+  <si>
+    <t>C70822</t>
+  </si>
+  <si>
+    <t>Payments_Recipient-Delete_Recipient_[WEB]</t>
+  </si>
+  <si>
+    <t>C70823</t>
+  </si>
+  <si>
+    <t>Payments_Recipient-Update_Recipient_[WEB]</t>
+  </si>
+  <si>
+    <t>C70824</t>
+  </si>
+  <si>
+    <t>Payments_Recipient-Edit_Recipient-Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>C70825</t>
   </si>
 </sst>
 </file>
@@ -1032,17 +1116,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1321,10 +1395,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2312,19 +2386,302 @@
         <v>11</v>
       </c>
     </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F49" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F61" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B63">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B51 B64:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B$1:B$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="136">
   <si>
     <t>TestName</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>C70825</t>
+  </si>
+  <si>
+    <t>Term_Deposits-Accounts_Details[WEB]</t>
+  </si>
+  <si>
+    <t>C70826</t>
   </si>
 </sst>
 </file>
@@ -1395,10 +1401,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2666,8 +2672,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F61" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F63" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
@@ -2677,10 +2703,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B63">
+  <conditionalFormatting sqref="B52:B64">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B64:B1048576">
+  <conditionalFormatting sqref="B1:B51 B65:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="138">
   <si>
     <t>TestName</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>C70826</t>
+  </si>
+  <si>
+    <t>Product_Summary-Loan_List[WEB]</t>
+  </si>
+  <si>
+    <t>C70827</t>
   </si>
 </sst>
 </file>
@@ -1401,10 +1407,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2689,6 +2695,26 @@
         <v>10</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2703,10 +2729,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B64">
+  <conditionalFormatting sqref="B52:B65">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B65:B1048576">
+  <conditionalFormatting sqref="B1:B51 B66:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="137">
   <si>
     <t>TestName</t>
   </si>
@@ -432,6 +432,15 @@
   </si>
   <si>
     <t>C70825</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Search_[WEB]</t>
+  </si>
+  <si>
+    <t>C70826</t>
+  </si>
+  <si>
+    <t>Current_Foreign_Accounts-Transactions-Search_[WEB]</t>
   </si>
 </sst>
 </file>
@@ -1395,10 +1404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2666,22 +2675,69 @@
         <v>11</v>
       </c>
     </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F61" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F63" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B64">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A64 A66:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B63">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B64:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="B1:B51 B66:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="140">
   <si>
     <t>TestName</t>
   </si>
@@ -444,6 +444,12 @@
   </si>
   <si>
     <t>C70827</t>
+  </si>
+  <si>
+    <t>Foreign_Current_Accounts-Transactions-Search_[WEB]</t>
+  </si>
+  <si>
+    <t>Current_Domestic_Accounts-Transactions-Search_[WEB]</t>
   </si>
 </sst>
 </file>
@@ -1407,10 +1413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2718,22 +2724,76 @@
         <v>11</v>
       </c>
     </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F63" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F65" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A$1:A$1048576">
+  <conditionalFormatting sqref="B66">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B65">
+  <conditionalFormatting sqref="B67">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B66:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="B52:B65">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A65 A68:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B51 B68:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="144">
   <si>
     <t>TestName</t>
   </si>
@@ -450,6 +450,18 @@
   </si>
   <si>
     <t>Current_Domestic_Accounts-Transactions-Search_[WEB]</t>
+  </si>
+  <si>
+    <t>Payments_Recipient-Edit_Recipient-Edit_Account_number-invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>C70828</t>
+  </si>
+  <si>
+    <t>Payments_Recipient-Update_Recipient-Update_Account_number_[WEB]</t>
+  </si>
+  <si>
+    <t>C70829</t>
   </si>
 </sst>
 </file>
@@ -1413,10 +1425,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2761,6 +2773,46 @@
         <v>10</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2778,21 +2830,21 @@
   <conditionalFormatting sqref="B66">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
+  <conditionalFormatting sqref="A67:A68">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B65">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A65 A68:A1048576">
+  <conditionalFormatting sqref="B67:B69">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A65 A69:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B68:B1048576">
+  <conditionalFormatting sqref="B1:B51 B70:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="145">
   <si>
     <t>TestName</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>C70829</t>
+  </si>
+  <si>
+    <t>Payments-Domestic_Payments-Cancel_Button_[WEB]</t>
   </si>
 </sst>
 </file>
@@ -1425,10 +1428,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2816,36 +2819,59 @@
         <v>11</v>
       </c>
     </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F65" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F69" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:A68">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B65">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:B69">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B65">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  <conditionalFormatting sqref="A1:A65 A69:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B69">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A65 A69:A1048576">
+  <conditionalFormatting sqref="B1:B51 B71:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B70:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="146">
   <si>
     <t>TestName</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>Payments-Domestic_Payments-Cancel_Button_[WEB]</t>
+  </si>
+  <si>
+    <t>Credit_Cards-Transactions-Download_Option_[WEB]</t>
   </si>
 </sst>
 </file>
@@ -1428,10 +1431,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2839,39 +2842,66 @@
         <v>11</v>
       </c>
     </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F69" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F70" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A68">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
+  <conditionalFormatting sqref="B52:B65">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:B69">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A1:A65 A69:A70 A72:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A68">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B65">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B69">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A65 A69:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B71:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  <conditionalFormatting sqref="B1:B51 B72:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="23040" windowHeight="9467"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="147">
   <si>
     <t>TestName</t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>Credit_Cards-Transactions-Download_Option_[WEB]</t>
+  </si>
+  <si>
+    <t>Payments-Domestic_Payments-Back_Button_[WEB]</t>
   </si>
 </sst>
 </file>
@@ -1431,10 +1434,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2862,46 +2865,73 @@
         <v>11</v>
       </c>
     </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F70" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F71" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A68">
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
+  <conditionalFormatting sqref="B52:B65">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:B69">
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="A1:A65 A69:A70 A73:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A68">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B65">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B69">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A65 A69:A70 A72:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B72:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  <conditionalFormatting sqref="B1:B51 B73:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9467"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="151">
   <si>
     <t>TestName</t>
   </si>
@@ -471,6 +471,18 @@
   </si>
   <si>
     <t>Payments-Domestic_Payments-Back_Button_[WEB]</t>
+  </si>
+  <si>
+    <t>Credit_Cards-Transactions_Filter_By_Type_[WEB]</t>
+  </si>
+  <si>
+    <t>C70830</t>
+  </si>
+  <si>
+    <t>Credit_Cards-Transactions_Filter_By_Amount_[WEB]</t>
+  </si>
+  <si>
+    <t>C70831</t>
   </si>
 </sst>
 </file>
@@ -1434,10 +1446,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2885,8 +2897,48 @@
         <v>11</v>
       </c>
     </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F71" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F72" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
@@ -2913,9 +2965,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A67:A68">
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
@@ -2926,11 +2975,14 @@
   <conditionalFormatting sqref="B67:B69">
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B72:B74">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A65 A69:A70 A73:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B73:B1048576">
+  <conditionalFormatting sqref="B1:B51 B75:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="154">
   <si>
     <t>TestName</t>
   </si>
@@ -483,6 +483,15 @@
   </si>
   <si>
     <t>C70831</t>
+  </si>
+  <si>
+    <t>Credit_Cards-Transactions_Filter_By_Amount_invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>Payments_Payments_Overview_Display_Options_For_The_Selected_Account_[WEB]</t>
+  </si>
+  <si>
+    <t>C70832</t>
   </si>
 </sst>
 </file>
@@ -1446,10 +1455,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2937,53 +2946,100 @@
         <v>11</v>
       </c>
     </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F72" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F75" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A68">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
     <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+  <conditionalFormatting sqref="A75:A76">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A68">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B52:B65">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B69">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B74">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:B76">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A65 A69:A70 A73:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  <conditionalFormatting sqref="A1:A65 A69:A70 A73:A74 A77:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B75:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  <conditionalFormatting sqref="B1:B51 B77:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="156">
   <si>
     <t>TestName</t>
   </si>
@@ -492,6 +492,12 @@
   </si>
   <si>
     <t>C70832</t>
+  </si>
+  <si>
+    <t>Credit_Cards-Transactions_Details[WEB]</t>
+  </si>
+  <si>
+    <t>C70833</t>
   </si>
 </sst>
 </file>
@@ -1455,10 +1461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2986,8 +2992,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F75" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F76" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
@@ -3031,14 +3057,14 @@
   <conditionalFormatting sqref="B72:B74">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75:B76">
+  <conditionalFormatting sqref="B75:B77">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A65 A69:A70 A73:A74 A77:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="20"/>
     <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B77:B1048576">
+  <conditionalFormatting sqref="B1:B51 B78:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="155">
   <si>
     <t>TestName</t>
   </si>
@@ -492,6 +492,9 @@
   </si>
   <si>
     <t>C70832</t>
+  </si>
+  <si>
+    <t>Credit_Cards-Transactions-Filter-Filter_By_Status_[WEB]</t>
   </si>
 </sst>
 </file>
@@ -1455,10 +1458,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2986,60 +2989,87 @@
         <v>11</v>
       </c>
     </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F75" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F76" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A68">
     <cfRule type="duplicateValues" dxfId="0" priority="16"/>
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+  <conditionalFormatting sqref="A75:A76">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A68">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:A76">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B52:B65">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B69">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B74">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:B76">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75:B76">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A1:A65 A69:A70 A73:A74 A78:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A65 A69:A70 A73:A74 A77:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B77:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+  <conditionalFormatting sqref="B1:B51 B78:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="157">
   <si>
     <t>TestName</t>
   </si>
@@ -495,6 +495,12 @@
   </si>
   <si>
     <t>Credit_Cards-Transactions-Filter-Filter_By_Status_[WEB]</t>
+  </si>
+  <si>
+    <t>Credit_Cards-Transactions_Details[WEB]</t>
+  </si>
+  <si>
+    <t>C70833</t>
   </si>
 </sst>
 </file>
@@ -1458,10 +1464,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3009,8 +3015,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F76" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F77" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
@@ -3041,9 +3067,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A67:A68">
     <cfRule type="duplicateValues" dxfId="0" priority="16"/>
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
@@ -3064,11 +3087,14 @@
   <conditionalFormatting sqref="B75:B76">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B77:B78">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A65 A69:A70 A73:A74 A78:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B78:B1048576">
+  <conditionalFormatting sqref="B1:B51 B79:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="159">
   <si>
     <t>TestName</t>
   </si>
@@ -501,6 +501,12 @@
   </si>
   <si>
     <t>C70833</t>
+  </si>
+  <si>
+    <t>Payments-Domestic_Payments-Create_New_Recipient_[WEB]</t>
+  </si>
+  <si>
+    <t>C70834</t>
   </si>
 </sst>
 </file>
@@ -1464,10 +1470,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3035,8 +3041,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F77" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F78" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
@@ -3087,14 +3113,14 @@
   <conditionalFormatting sqref="B75:B76">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77:B78">
+  <conditionalFormatting sqref="B77:B79">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A65 A69:A70 A73:A74 A78:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B79:B1048576">
+  <conditionalFormatting sqref="B1:B51 B80:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="159">
   <si>
     <t>TestName</t>
   </si>
@@ -501,6 +501,12 @@
   </si>
   <si>
     <t>C70833</t>
+  </si>
+  <si>
+    <t>Domestic_Payments_Modify_Data_[WEB]</t>
+  </si>
+  <si>
+    <t>C70834</t>
   </si>
 </sst>
 </file>
@@ -1464,10 +1470,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3035,8 +3041,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F77" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F78" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
@@ -3087,14 +3113,14 @@
   <conditionalFormatting sqref="B75:B76">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77:B78">
+  <conditionalFormatting sqref="B77:B79">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A65 A69:A70 A73:A74 A78:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B79:B1048576">
+  <conditionalFormatting sqref="B1:B51 B80:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="161">
   <si>
     <t>TestName</t>
   </si>
@@ -507,6 +507,12 @@
   </si>
   <si>
     <t>C70834</t>
+  </si>
+  <si>
+    <t>Domestic_Payments_In_Future_[WEB]</t>
+  </si>
+  <si>
+    <t>C70835</t>
   </si>
 </sst>
 </file>
@@ -1470,10 +1476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3061,8 +3067,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F78" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F79" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
@@ -3113,14 +3139,14 @@
   <conditionalFormatting sqref="B75:B76">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77:B79">
+  <conditionalFormatting sqref="B77:B80">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A65 A69:A70 A73:A74 A78:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B80:B1048576">
+  <conditionalFormatting sqref="B1:B51 B81:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/listForExecution.xlsx
+++ b/testdata/listForExecution.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="165">
   <si>
     <t>TestName</t>
   </si>
@@ -513,6 +513,18 @@
   </si>
   <si>
     <t>C70835</t>
+  </si>
+  <si>
+    <t>Credit_Cards-Transactions-Filter_Multiple_Filter_Invalid_[WEB]</t>
+  </si>
+  <si>
+    <t>C70836</t>
+  </si>
+  <si>
+    <t>Payments-Domestic_Payments-Create_New_Recipient_[WEB]</t>
+  </si>
+  <si>
+    <t>C70837</t>
   </si>
 </sst>
 </file>
@@ -1476,10 +1488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3087,8 +3099,48 @@
         <v>11</v>
       </c>
     </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F79" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F81" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A32">
@@ -3139,14 +3191,14 @@
   <conditionalFormatting sqref="B75:B76">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77:B80">
+  <conditionalFormatting sqref="B77:B82">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A65 A69:A70 A73:A74 A78:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B81:B1048576">
+  <conditionalFormatting sqref="B1:B51 B83:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
